--- a/documentation/Структура БД.xlsx
+++ b/documentation/Структура БД.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A70FC9-5994-4CEA-9A4F-48648C666110}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EAB4D0-4D13-4E8A-8081-96774FAC05A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -928,15 +928,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>13111</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>192405</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -951,8 +951,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2433582" y="4036023"/>
-          <a:ext cx="1802242" cy="795617"/>
+          <a:off x="2420471" y="3834317"/>
+          <a:ext cx="1815353" cy="995418"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -994,6 +994,13 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0"/>
             <a:t>index: number</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>name: string</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2229,13 +2236,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>311020</xdr:colOff>
+      <xdr:colOff>302560</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>284124</xdr:colOff>
+      <xdr:colOff>287933</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
@@ -2255,8 +2262,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6360291" y="3832412"/>
-          <a:ext cx="1189055" cy="405317"/>
+          <a:off x="3328148" y="3429000"/>
+          <a:ext cx="1195609" cy="405317"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2286,14 +2293,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>590101</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>199914</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>96202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>16921</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>198009</xdr:rowOff>
+      <xdr:rowOff>196104</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2311,8 +2318,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4829735" y="4635538"/>
-          <a:ext cx="629435" cy="804919"/>
+          <a:off x="1800336" y="4332026"/>
+          <a:ext cx="620135" cy="705019"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3611,7 +3618,7 @@
   <dimension ref="AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T37" sqref="T37"/>
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/documentation/Структура БД.xlsx
+++ b/documentation/Структура БД.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.bernyakovich\Desktop\IMS-Docs\documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8918B2D4-E91C-43A7-A5D7-D7B1C484D1D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DB" sheetId="1" r:id="rId4"/>
+    <sheet name="DB" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -19,35 +28,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -90,50 +75,104 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff222a35"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF222A35"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -147,9 +186,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>51227</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Прямоугольник 38"/>
+        <xdr:cNvPr id="2" name="Прямоугольник 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -192,7 +237,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -217,7 +262,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -229,7 +274,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -241,16 +286,6 @@
             </a:rPr>
             <a:t>System</a:t>
           </a:r>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -268,7 +303,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -280,7 +315,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -292,16 +327,6 @@
             </a:rPr>
             <a:t>id: string</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="222A35"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -319,7 +344,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -331,7 +356,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -343,16 +368,6 @@
             </a:rPr>
             <a:t>name: string</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="222A35"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -370,7 +385,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -382,7 +397,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -412,9 +427,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>52308</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Прямоугольник 39"/>
+        <xdr:cNvPr id="3" name="Прямоугольник 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -457,7 +478,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -482,7 +503,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -494,7 +515,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -506,16 +527,6 @@
             </a:rPr>
             <a:t>Department</a:t>
           </a:r>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -533,7 +544,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -545,7 +556,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -557,16 +568,6 @@
             </a:rPr>
             <a:t>id: string</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="222A35"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -584,7 +585,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -596,7 +597,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -608,16 +609,6 @@
             </a:rPr>
             <a:t>name: string</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="222A35"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -635,7 +626,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -647,7 +638,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -677,9 +668,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>118872</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Прямоугольник 40"/>
+        <xdr:cNvPr id="4" name="Прямоугольник 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -722,7 +719,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -747,7 +744,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -759,7 +756,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -771,16 +768,6 @@
             </a:rPr>
             <a:t>Position</a:t>
           </a:r>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -798,7 +785,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -810,7 +797,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -822,16 +809,6 @@
             </a:rPr>
             <a:t>id: string</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="222A35"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -849,7 +826,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -861,7 +838,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -873,16 +850,6 @@
             </a:rPr>
             <a:t>name: string</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="222A35"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -900,7 +867,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -912,7 +879,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -942,9 +909,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>122725</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Прямоугольник 41"/>
+        <xdr:cNvPr id="5" name="Прямоугольник 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -987,7 +960,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1012,7 +985,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1024,7 +997,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1036,16 +1009,6 @@
             </a:rPr>
             <a:t>User</a:t>
           </a:r>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -1063,7 +1026,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1075,7 +1038,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1087,16 +1050,6 @@
             </a:rPr>
             <a:t>id: string</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -1114,7 +1067,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1126,7 +1079,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1138,16 +1091,6 @@
             </a:rPr>
             <a:t>name: string</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -1165,7 +1108,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1177,7 +1120,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1189,16 +1132,6 @@
             </a:rPr>
             <a:t>position: Position id</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -1216,7 +1149,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1228,7 +1161,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1240,16 +1173,6 @@
             </a:rPr>
             <a:t>department: Department id</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -1267,7 +1190,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1279,7 +1202,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1291,16 +1214,6 @@
             </a:rPr>
             <a:t>phone: string</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -1318,7 +1231,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1330,7 +1243,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1342,16 +1255,6 @@
             </a:rPr>
             <a:t>email: string</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -1369,7 +1272,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1381,7 +1284,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1411,9 +1314,15 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>74243</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Прямоугольник 42"/>
+        <xdr:cNvPr id="6" name="Прямоугольник 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1456,7 +1365,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1481,7 +1390,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1493,7 +1402,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1505,16 +1414,6 @@
             </a:rPr>
             <a:t>Document</a:t>
           </a:r>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -1532,7 +1431,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -1544,7 +1443,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -1557,7 +1456,7 @@
             <a:t>id: string                                                 </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1569,7 +1468,7 @@
             </a:rPr>
             <a:t>owner: Department id</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+          <a:endParaRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
             <a:solidFill>
               <a:srgbClr val="222A35"/>
             </a:solidFill>
@@ -1596,7 +1495,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -1608,7 +1507,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -1621,7 +1520,7 @@
             <a:t>index: number                                      </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1633,7 +1532,7 @@
             </a:rPr>
             <a:t>system: System id</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+          <a:endParaRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
             <a:solidFill>
               <a:srgbClr val="222A35"/>
             </a:solidFill>
@@ -1660,7 +1559,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -1672,7 +1571,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -1685,7 +1584,7 @@
             <a:t>name: string                                          </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1697,7 +1596,7 @@
             </a:rPr>
             <a:t>version: number</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+          <a:endParaRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
             <a:solidFill>
               <a:srgbClr val="222A35"/>
             </a:solidFill>
@@ -1724,7 +1623,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -1736,7 +1635,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -1766,9 +1665,15 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>74296</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Прямоугольник 44"/>
+        <xdr:cNvPr id="7" name="Прямоугольник 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1811,7 +1716,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1836,7 +1741,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1848,7 +1753,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1860,16 +1765,6 @@
             </a:rPr>
             <a:t>TestResult</a:t>
           </a:r>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -1887,7 +1782,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1899,7 +1794,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1911,16 +1806,6 @@
             </a:rPr>
             <a:t>id: string</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -1938,7 +1823,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1950,7 +1835,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1962,16 +1847,6 @@
             </a:rPr>
             <a:t>document: Document id</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -1989,7 +1864,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2001,7 +1876,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2013,16 +1888,6 @@
             </a:rPr>
             <a:t>user: User id</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -2040,7 +1905,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2052,7 +1917,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2082,9 +1947,15 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>37973</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Прямоугольник 45"/>
+        <xdr:cNvPr id="8" name="Прямоугольник 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2127,7 +1998,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -2152,7 +2023,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2164,7 +2035,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2176,16 +2047,6 @@
             </a:rPr>
             <a:t>DocumentType</a:t>
           </a:r>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -2203,7 +2064,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2215,7 +2076,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2227,16 +2088,6 @@
             </a:rPr>
             <a:t>id: string</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -2254,7 +2105,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2266,7 +2117,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2278,16 +2129,6 @@
             </a:rPr>
             <a:t>index: string</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -2305,7 +2146,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2317,7 +2158,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2347,9 +2188,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>65960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Прямоугольник 46"/>
+        <xdr:cNvPr id="9" name="Прямоугольник 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2392,7 +2239,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -2417,7 +2264,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2429,7 +2276,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2441,16 +2288,6 @@
             </a:rPr>
             <a:t>Form</a:t>
           </a:r>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -2468,7 +2305,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2480,7 +2317,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2492,16 +2329,6 @@
             </a:rPr>
             <a:t>id: string</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -2519,7 +2346,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2531,7 +2358,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2543,16 +2370,6 @@
             </a:rPr>
             <a:t>index: number</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -2570,7 +2387,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2582,7 +2399,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2594,16 +2411,6 @@
             </a:rPr>
             <a:t>name: string</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -2621,7 +2428,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2633,7 +2440,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2663,9 +2470,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>69565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Прямоугольник 48"/>
+        <xdr:cNvPr id="10" name="Прямоугольник 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2708,7 +2521,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -2733,7 +2546,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2745,7 +2558,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2757,16 +2570,6 @@
             </a:rPr>
             <a:t>FormFile</a:t>
           </a:r>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -2784,7 +2587,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2796,7 +2599,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2808,16 +2611,6 @@
             </a:rPr>
             <a:t>id: string</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -2835,7 +2628,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2847,7 +2640,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2859,16 +2652,6 @@
             </a:rPr>
             <a:t>form: Form id</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -2886,7 +2669,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2898,7 +2681,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2910,16 +2693,6 @@
             </a:rPr>
             <a:t>language: 'ru' | 'kz' | 'en'</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -2937,7 +2710,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2949,7 +2722,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2979,9 +2752,15 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>65119</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Прямоугольник 49"/>
+        <xdr:cNvPr id="11" name="Прямоугольник 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3024,7 +2803,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3049,7 +2828,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3061,7 +2840,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3073,16 +2852,6 @@
             </a:rPr>
             <a:t>DocumentFile</a:t>
           </a:r>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -3100,7 +2869,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3112,7 +2881,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3124,16 +2893,6 @@
             </a:rPr>
             <a:t>id: string</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -3151,7 +2910,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3163,7 +2922,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3175,16 +2934,6 @@
             </a:rPr>
             <a:t>document: Document id</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -3202,7 +2951,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3214,7 +2963,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3226,16 +2975,6 @@
             </a:rPr>
             <a:t>language: 'ru' | 'kz' | 'en'</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -3253,7 +2992,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3265,7 +3004,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3295,9 +3034,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>72295</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Прямоугольник 50"/>
+        <xdr:cNvPr id="12" name="Прямоугольник 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3340,7 +3085,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3365,7 +3110,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3377,7 +3122,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3389,16 +3134,6 @@
             </a:rPr>
             <a:t>Token</a:t>
           </a:r>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -3416,7 +3151,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3428,7 +3163,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3440,16 +3175,6 @@
             </a:rPr>
             <a:t>id: string</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -3467,7 +3192,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3479,7 +3204,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3491,16 +3216,6 @@
             </a:rPr>
             <a:t>user: User id</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -3518,7 +3233,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3530,7 +3245,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3560,9 +3275,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>79913</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Прямоугольник 51"/>
+        <xdr:cNvPr id="13" name="Прямоугольник 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3605,7 +3326,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3630,7 +3351,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3642,7 +3363,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3654,16 +3375,6 @@
             </a:rPr>
             <a:t>Familiarity</a:t>
           </a:r>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -3681,7 +3392,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -3693,7 +3404,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -3705,16 +3416,6 @@
             </a:rPr>
             <a:t>id: string</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="222A35"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -3732,7 +3433,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -3744,7 +3445,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -3756,16 +3457,6 @@
             </a:rPr>
             <a:t>department: Department id</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="222A35"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -3783,7 +3474,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -3795,7 +3486,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -3825,9 +3516,15 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>51815</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Прямоугольник 52"/>
+        <xdr:cNvPr id="14" name="Прямоугольник 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3870,7 +3567,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3895,7 +3592,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3907,7 +3604,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3919,16 +3616,6 @@
             </a:rPr>
             <a:t>Test</a:t>
           </a:r>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -3946,7 +3633,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3958,7 +3645,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3970,16 +3657,6 @@
             </a:rPr>
             <a:t>id: string</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -3997,7 +3674,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4009,7 +3686,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4028,29 +3705,178 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>253942</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3361</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>99395</xdr:rowOff>
+      <xdr:rowOff>100348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>608330</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>195263</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Прямая со стрелкой 55"/>
+        <xdr:cNvPr id="15" name="Прямая со стрелкой 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="0"/>
-          <a:endCxn id="14" idx="0"/>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4965642" y="2873075"/>
-          <a:ext cx="4121208" cy="1279826"/>
+          <a:off x="6708961" y="2900698"/>
+          <a:ext cx="604969" cy="1295065"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3361</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>608330</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100348</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Прямая со стрелкой 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6708961" y="2900364"/>
+          <a:ext cx="604969" cy="334"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>305846</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>124630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>311785</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>125731</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Прямая со стрелкой 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8230646" y="2124880"/>
+          <a:ext cx="5939" cy="201126"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>195374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Прямая со стрелкой 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1829812" y="1595549"/>
+          <a:ext cx="637163" cy="719026"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4071,28 +3897,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>253942</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>99061</xdr:rowOff>
+      <xdr:colOff>285692</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>56118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>99395</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314360</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>126452</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Прямая со стрелкой 61"/>
+        <xdr:cNvPr id="19" name="Прямая со стрелкой 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="0"/>
-          <a:endCxn id="7" idx="0"/>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4965642" y="2872741"/>
-          <a:ext cx="4121208" cy="335"/>
+        <a:xfrm flipH="1">
+          <a:off x="4552892" y="2056368"/>
+          <a:ext cx="1247868" cy="270359"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4112,29 +3944,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>296955</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>17815</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>99061</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>608330</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4650</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Прямая со стрелкой 66"/>
+        <xdr:cNvPr id="20" name="Прямая со стрелкой 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="0"/>
-          <a:endCxn id="7" idx="0"/>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9047255" y="1190512"/>
-          <a:ext cx="39595" cy="1682230"/>
+        <a:xfrm flipV="1">
+          <a:off x="6723415" y="1201942"/>
+          <a:ext cx="590515" cy="402908"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4154,29 +3992,275 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>300036</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>194421</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3361</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>253942</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>99395</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>608330</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1792</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Прямая со стрелкой 68"/>
+        <xdr:cNvPr id="21" name="Прямая со стрелкой 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="0"/>
-          <a:endCxn id="6" idx="0"/>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="973135" y="1581261"/>
-          <a:ext cx="3992508" cy="1291815"/>
+          <a:off x="6708961" y="460439"/>
+          <a:ext cx="604969" cy="741503"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3361</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>606200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Прямая со стрелкой 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9147361" y="1201942"/>
+          <a:ext cx="602839" cy="600189"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311785</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>74243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285692</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>130254</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Прямая со стрелкой 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3359785" y="3474668"/>
+          <a:ext cx="1193107" cy="256036"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>603884</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>608330</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104346</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Прямая со стрелкой 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="1"/>
+          <a:endCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1823084" y="4297680"/>
+          <a:ext cx="614046" cy="7191"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>98948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>568023</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100348</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Прямая со стрелкой 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="1"/>
+          <a:endCxn id="11" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1866900" y="2899298"/>
+          <a:ext cx="529923" cy="1400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311785</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>79913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285692</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>126452</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Прямая со стрелкой 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="0"/>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3359785" y="2080163"/>
+          <a:ext cx="1193107" cy="246564"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4197,364 +4281,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>253942</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3697</xdr:rowOff>
+      <xdr:rowOff>4650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>339125</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>99395</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1305</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>6667</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Прямая со стрелкой 70"/>
+        <xdr:cNvPr id="27" name="Прямая со стрелкой 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="0"/>
-          <a:endCxn id="6" idx="0"/>
+          <a:stCxn id="3" idx="1"/>
+          <a:endCxn id="13" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4965642" y="1588657"/>
-          <a:ext cx="1431384" cy="1284419"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>339125</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1792</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>296955</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>3697</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Прямая со стрелкой 72"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="0"/>
-          <a:endCxn id="5" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6397025" y="1190512"/>
-          <a:ext cx="2650231" cy="398146"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>259155</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>296955</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1792</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Прямая со стрелкой 74"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="0"/>
-          <a:endCxn id="5" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6317055" y="396239"/>
-          <a:ext cx="2730201" cy="794274"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>296955</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1792</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>358121</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1906</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Прямая со стрелкой 76"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="0"/>
-          <a:endCxn id="12" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9047255" y="1190512"/>
-          <a:ext cx="2753567" cy="594475"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>99395</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>253942</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>96202</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Прямая со стрелкой 80"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="0"/>
-          <a:endCxn id="9" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3702050" y="2873075"/>
-          <a:ext cx="1263593" cy="1383648"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>287019</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>96202</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>106250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Прямая со стрелкой 82"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="0"/>
-          <a:endCxn id="10" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="960119" y="4256722"/>
-          <a:ext cx="2741931" cy="10049"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>339126</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>99395</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>253942</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>101805</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Прямая со стрелкой 88"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="0"/>
-          <a:endCxn id="11" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1012226" y="2873075"/>
-          <a:ext cx="3953417" cy="2411"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>253942</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>99395</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Прямая со стрелкой 90"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="0"/>
-          <a:endCxn id="13" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3702050" y="1594484"/>
-          <a:ext cx="1263593" cy="1278592"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>3697</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>339125</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Прямая со стрелкой 92"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="0"/>
-          <a:endCxn id="13" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3702050" y="1588657"/>
-          <a:ext cx="2694976" cy="5828"/>
+          <a:off x="4282440" y="1604850"/>
+          <a:ext cx="595665" cy="2017"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4585,9 +4339,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>53141</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Прямоугольник 439"/>
+        <xdr:cNvPr id="28" name="Прямоугольник 439">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4630,7 +4390,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4655,7 +4415,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4667,7 +4427,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4679,16 +4439,6 @@
             </a:rPr>
             <a:t>UserAuth</a:t>
           </a:r>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -4706,7 +4456,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4718,7 +4468,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4730,16 +4480,6 @@
             </a:rPr>
             <a:t>id: string</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -4757,7 +4497,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4769,7 +4509,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4781,16 +4521,6 @@
             </a:rPr>
             <a:t>user: User id</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -4808,7 +4538,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4820,7 +4550,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4839,29 +4569,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>296955</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3361</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>191116</xdr:rowOff>
+      <xdr:rowOff>195879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>303175</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609340</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1792</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Прямая со стрелкой 440"/>
+        <xdr:cNvPr id="29" name="Прямая со стрелкой 440">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="0"/>
-          <a:endCxn id="28" idx="0"/>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="28" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9047255" y="587356"/>
-          <a:ext cx="2698621" cy="603157"/>
+          <a:off x="9147361" y="595929"/>
+          <a:ext cx="605979" cy="606013"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4894,20 +4630,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="32" name="Прямоугольник 495"/>
+        <xdr:cNvPr id="32" name="Прямоугольник 495">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10769600" y="3726489"/>
-          <a:ext cx="2019300" cy="829160"/>
+          <a:off x="9753600" y="3762684"/>
+          <a:ext cx="1831339" cy="836779"/>
           <a:chOff x="0" y="-50900"/>
           <a:chExt cx="2019299" cy="829158"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="Прямоугольник"/>
+          <xdr:cNvPr id="30" name="Прямоугольник">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4953,13 +4701,19 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="TestQuestion…"/>
+          <xdr:cNvPr id="31" name="TestQuestion…">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4978,7 +4732,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -5003,7 +4757,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5015,7 +4769,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5027,16 +4781,6 @@
               </a:rPr>
               <a:t>TestQuestion</a:t>
             </a:r>
-            <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -5054,7 +4798,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5066,7 +4810,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5078,16 +4822,6 @@
               </a:rPr>
               <a:t>id: string</a:t>
             </a:r>
-            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -5105,7 +4839,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5117,7 +4851,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5129,16 +4863,6 @@
               </a:rPr>
               <a:t>test: Test id</a:t>
             </a:r>
-            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -5156,7 +4880,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5168,7 +4892,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5201,20 +4925,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="35" name="Прямоугольник 496"/>
+        <xdr:cNvPr id="35" name="Прямоугольник 496">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10690410" y="2316062"/>
-          <a:ext cx="2111601" cy="1051980"/>
+          <a:off x="9734100" y="2333207"/>
+          <a:ext cx="1865220" cy="1067219"/>
           <a:chOff x="0" y="-63283"/>
           <a:chExt cx="2111599" cy="1051978"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="Прямоугольник"/>
+          <xdr:cNvPr id="33" name="Прямоугольник">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5260,13 +4996,19 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="TestAnswer…"/>
+          <xdr:cNvPr id="34" name="TestAnswer…">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5285,7 +5027,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -5310,7 +5052,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5322,7 +5064,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5334,16 +5076,6 @@
               </a:rPr>
               <a:t>TestAnswer</a:t>
             </a:r>
-            <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -5361,7 +5093,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5373,7 +5105,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5385,16 +5117,6 @@
               </a:rPr>
               <a:t>id: string</a:t>
             </a:r>
-            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -5412,7 +5134,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5424,7 +5146,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5436,16 +5158,6 @@
               </a:rPr>
               <a:t>question: TestQuestion id</a:t>
             </a:r>
-            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -5463,7 +5175,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5475,7 +5187,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5487,16 +5199,6 @@
               </a:rPr>
               <a:t>text: string</a:t>
             </a:r>
-            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -5514,7 +5216,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5526,7 +5228,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5557,9 +5259,15 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>196965</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Прямая со стрелкой 497"/>
+        <xdr:cNvPr id="40" name="Прямая со стрелкой 497">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5587,7 +5295,7 @@
           </a:cxnLst>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="21600" h="21600" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="0" y="0"/>
               </a:moveTo>
@@ -5612,7 +5320,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5631,9 +5339,15 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>9935</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Прямая со стрелкой 500"/>
+        <xdr:cNvPr id="41" name="Прямая со стрелкой 500">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5661,7 +5375,7 @@
           </a:cxnLst>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="21600" h="21600" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="21600" y="21600"/>
               </a:moveTo>
@@ -5686,7 +5400,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5705,9 +5419,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>109852</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Прямоугольник 43"/>
+        <xdr:cNvPr id="38" name="Прямоугольник 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5750,7 +5470,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -5775,7 +5495,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -5787,7 +5507,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -5799,16 +5519,6 @@
             </a:rPr>
             <a:t>Company</a:t>
           </a:r>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -5826,7 +5536,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -5838,7 +5548,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -5850,16 +5560,6 @@
             </a:rPr>
             <a:t>id: string</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="222A35"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -5877,7 +5577,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -5889,7 +5589,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -5901,16 +5601,6 @@
             </a:rPr>
             <a:t>name: string</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="222A35"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -5928,7 +5618,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -5940,7 +5630,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="222A35"/>
               </a:solidFill>
@@ -5959,58 +5649,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>353158</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304053</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>659527</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>183964</xdr:rowOff>
+      <xdr:rowOff>132244</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Прямая со стрелкой 500"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Прямая со стрелкой 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D900024E-E16F-4133-92D0-EFE3DBC4040C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5737958" y="3368040"/>
-          <a:ext cx="306369" cy="382085"/>
+        <a:xfrm flipV="1">
+          <a:off x="5790453" y="3457575"/>
+          <a:ext cx="747" cy="275119"/>
         </a:xfrm>
-        <a:custGeom>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="wd2" y="hd2"/>
-            </a:cxn>
-            <a:cxn ang="5400000">
-              <a:pos x="wd2" y="hd2"/>
-            </a:cxn>
-            <a:cxn ang="10800000">
-              <a:pos x="wd2" y="hd2"/>
-            </a:cxn>
-            <a:cxn ang="16200000">
-              <a:pos x="wd2" y="hd2"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="0" t="0" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
-              <a:moveTo>
-                <a:pt x="21600" y="21600"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="0"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
+        </a:prstGeom>
         <a:ln w="19050" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent2"/>
@@ -6021,21 +5691,14 @@
         </a:ln>
         <a:effectLst/>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -6237,7 +5900,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -6256,7 +5919,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6286,7 +5949,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6312,7 +5975,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6338,7 +6001,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6364,7 +6027,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6390,7 +6053,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6416,7 +6079,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6442,7 +6105,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6468,7 +6131,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6494,7 +6157,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6507,9 +6170,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -6526,7 +6195,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -6545,7 +6214,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6571,7 +6240,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6597,7 +6266,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6623,7 +6292,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6649,7 +6318,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6675,7 +6344,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6701,7 +6370,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6727,7 +6396,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6753,7 +6422,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6779,7 +6448,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6792,9 +6461,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -6808,7 +6483,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -6827,7 +6502,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6857,7 +6532,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6883,7 +6558,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6909,7 +6584,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6935,7 +6610,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6961,7 +6636,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6987,7 +6662,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -7013,7 +6688,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -7039,7 +6714,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -7065,7 +6740,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -7078,29 +6753,38 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="30" width="8.85156" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="31" width="8.88671875" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" customHeight="1">
+    <row r="1" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7132,7 +6816,7 @@
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
     </row>
-    <row r="2" ht="15.6" customHeight="1">
+    <row r="2" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -7164,7 +6848,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" ht="15.6" customHeight="1">
+    <row r="3" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -7196,7 +6880,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" ht="15.6" customHeight="1">
+    <row r="4" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -7228,7 +6912,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" ht="15.6" customHeight="1">
+    <row r="5" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -7260,7 +6944,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" ht="15.6" customHeight="1">
+    <row r="6" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -7292,7 +6976,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" ht="15.6" customHeight="1">
+    <row r="7" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -7324,7 +7008,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" ht="15.6" customHeight="1">
+    <row r="8" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -7356,7 +7040,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" ht="15.6" customHeight="1">
+    <row r="9" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -7388,7 +7072,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" ht="15.6" customHeight="1">
+    <row r="10" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -7420,7 +7104,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" ht="15.6" customHeight="1">
+    <row r="11" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -7452,7 +7136,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" ht="15.6" customHeight="1">
+    <row r="12" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -7484,7 +7168,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" ht="15.6" customHeight="1">
+    <row r="13" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -7516,7 +7200,7 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" ht="15.6" customHeight="1">
+    <row r="14" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -7548,7 +7232,7 @@
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
     </row>
-    <row r="15" ht="15.6" customHeight="1">
+    <row r="15" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -7580,7 +7264,7 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
     </row>
-    <row r="16" ht="15.6" customHeight="1">
+    <row r="16" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -7610,11 +7294,11 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
-      <c r="AD16" t="s" s="3">
+      <c r="AD16" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="15.6" customHeight="1">
+    <row r="17" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -7646,7 +7330,7 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
     </row>
-    <row r="18" ht="15.6" customHeight="1">
+    <row r="18" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -7678,7 +7362,7 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
     </row>
-    <row r="19" ht="15.6" customHeight="1">
+    <row r="19" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -7710,7 +7394,7 @@
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
     </row>
-    <row r="20" ht="15.6" customHeight="1">
+    <row r="20" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -7742,7 +7426,7 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
     </row>
-    <row r="21" ht="15.6" customHeight="1">
+    <row r="21" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -7774,7 +7458,7 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
     </row>
-    <row r="22" ht="15.6" customHeight="1">
+    <row r="22" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -7806,7 +7490,7 @@
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
     </row>
-    <row r="23" ht="15.6" customHeight="1">
+    <row r="23" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -7838,7 +7522,7 @@
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
     </row>
-    <row r="24" ht="15.6" customHeight="1">
+    <row r="24" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -7870,7 +7554,7 @@
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
     </row>
-    <row r="25" ht="15.6" customHeight="1">
+    <row r="25" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -7902,7 +7586,7 @@
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
     </row>
-    <row r="26" ht="15.6" customHeight="1">
+    <row r="26" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -7934,7 +7618,7 @@
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
     </row>
-    <row r="27" ht="15.6" customHeight="1">
+    <row r="27" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -7966,7 +7650,7 @@
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
     </row>
-    <row r="28" ht="15.6" customHeight="1">
+    <row r="28" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -7998,7 +7682,7 @@
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
     </row>
-    <row r="29" ht="15.6" customHeight="1">
+    <row r="29" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -8030,7 +7714,7 @@
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
     </row>
-    <row r="30" ht="15.6" customHeight="1">
+    <row r="30" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -8064,7 +7748,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
